--- a/infrastructure/repository/data/CPI统计数据(2021~至今).xlsx
+++ b/infrastructure/repository/data/CPI统计数据(2021~至今).xlsx
@@ -425,242 +425,242 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>2022年1月</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>2022年2月</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>2022年3月</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>2022年4月</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>2022年5月</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>2022年6月</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>2022年7月</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>2022年8月</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>2022年9月</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>2022年10月</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>2022年11月</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>2022年12月</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>2023年1月</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>2023年2月</t>
+          <t>202302</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>2023年3月</t>
+          <t>202303</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>2023年4月</t>
+          <t>202304</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>2023年5月</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>2023年6月</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>2023年7月</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>2023年8月</t>
+          <t>202308</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>2023年9月</t>
+          <t>202309</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>2023年10月</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>2023年11月</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>2023年12月</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>2024年1月</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>2024年2月</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>2024年3月</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>2024年4月</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>2024年5月</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
         <is>
-          <t>2024年6月</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>2024年7月</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr">
         <is>
-          <t>2024年8月</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>2024年9月</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>2024年10月</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="AV1" t="inlineStr">
         <is>
-          <t>2024年11月</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="AW1" t="inlineStr">
         <is>
-          <t>2024年12月</t>
+          <t>202412</t>
         </is>
       </c>
     </row>

--- a/infrastructure/repository/data/CPI统计数据(2021~至今).xlsx
+++ b/infrastructure/repository/data/CPI统计数据(2021~至今).xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,545 +425,237 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>202208</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>202209</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>202210</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>202211</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>202212</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>202301</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>202302</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>202303</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>202304</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>202306</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>202307</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>202308</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>202309</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>202310</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>202311</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>202312</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>202401</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>202402</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>202403</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>202404</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>202405</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>202406</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>202407</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>202408</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>202409</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>202410</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>202411</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>202412</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>居民消费价格指数</t>
+          <t>黄金储备</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.7</v>
+        <v>1929</v>
       </c>
       <c r="C2" t="n">
-        <v>99.8</v>
+        <v>1929</v>
       </c>
       <c r="D2" t="n">
-        <v>100.4</v>
+        <v>1929</v>
       </c>
       <c r="E2" t="n">
-        <v>100.9</v>
+        <v>1929</v>
       </c>
       <c r="F2" t="n">
-        <v>101.3</v>
+        <v>3389</v>
       </c>
       <c r="G2" t="n">
-        <v>101.1</v>
+        <v>3389</v>
       </c>
       <c r="H2" t="n">
-        <v>101</v>
+        <v>3389</v>
       </c>
       <c r="I2" t="n">
-        <v>100.8</v>
+        <v>3389</v>
       </c>
       <c r="J2" t="n">
-        <v>100.7</v>
+        <v>3389</v>
       </c>
       <c r="K2" t="n">
-        <v>101.5</v>
+        <v>3389</v>
       </c>
       <c r="L2" t="n">
-        <v>102.3</v>
+        <v>5666</v>
       </c>
       <c r="M2" t="n">
-        <v>101.5</v>
+        <v>5924</v>
       </c>
       <c r="N2" t="n">
-        <v>100.9</v>
+        <v>5924</v>
       </c>
       <c r="O2" t="n">
-        <v>100.9</v>
+        <v>5956</v>
       </c>
       <c r="P2" t="n">
-        <v>101.5</v>
+        <v>6264</v>
       </c>
       <c r="Q2" t="n">
-        <v>102.1</v>
+        <v>6264</v>
       </c>
       <c r="R2" t="n">
-        <v>102.1</v>
+        <v>6264</v>
       </c>
       <c r="S2" t="n">
-        <v>102.5</v>
+        <v>6464</v>
       </c>
       <c r="T2" t="n">
-        <v>102.7</v>
+        <v>7187</v>
       </c>
       <c r="U2" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="W2" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>100.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>不包括食品和能源居民消费价格指数</t>
+          <t>外汇储备</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.7</v>
+        <v>8188.72</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>10663.44</v>
       </c>
       <c r="D3" t="n">
-        <v>100.3</v>
+        <v>15282.49</v>
       </c>
       <c r="E3" t="n">
-        <v>100.7</v>
+        <v>19460.3</v>
       </c>
       <c r="F3" t="n">
-        <v>100.9</v>
+        <v>23991.52</v>
       </c>
       <c r="G3" t="n">
-        <v>100.9</v>
+        <v>28473.38</v>
       </c>
       <c r="H3" t="n">
-        <v>101.3</v>
+        <v>31811.48</v>
       </c>
       <c r="I3" t="n">
-        <v>101.2</v>
+        <v>33115.89</v>
       </c>
       <c r="J3" t="n">
-        <v>101.2</v>
+        <v>38213.15</v>
       </c>
       <c r="K3" t="n">
-        <v>101.3</v>
+        <v>38430.18</v>
       </c>
       <c r="L3" t="n">
-        <v>101.2</v>
+        <v>33303.62</v>
       </c>
       <c r="M3" t="n">
-        <v>101.2</v>
+        <v>30105.17</v>
       </c>
       <c r="N3" t="n">
-        <v>101.2</v>
+        <v>31399.49</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1</v>
+        <v>30727.12</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1</v>
+        <v>31079.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>100.9</v>
+        <v>32165.22</v>
       </c>
       <c r="R3" t="n">
-        <v>100.9</v>
+        <v>32501.66</v>
       </c>
       <c r="S3" t="n">
-        <v>101</v>
+        <v>31276.91</v>
       </c>
       <c r="T3" t="n">
-        <v>100.8</v>
+        <v>32379.77</v>
       </c>
       <c r="U3" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="W3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>100.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
